--- a/DMSNewVSale_2025-12-17_19-23.xlsx
+++ b/DMSNewVSale_2025-12-17_19-23.xlsx
@@ -576,6 +576,12 @@
   </si>
   <si>
     <t>59.0000</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.0000</t>
   </si>
   <si>
     <t>TRYPTIZOL 25MG 30 TAB</t>
@@ -3179,7 +3185,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3212,7 +3218,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3222,14 +3228,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3238,14 +3244,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3255,11 +3261,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>15</v>
@@ -3271,14 +3277,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3288,14 +3294,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3304,14 +3310,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3321,14 +3327,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3337,14 +3343,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3354,11 +3360,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3370,31 +3376,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3403,7 +3409,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3420,11 +3426,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>15</v>
@@ -3436,7 +3442,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3453,14 +3459,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3469,7 +3475,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3486,14 +3492,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>161</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3502,7 +3508,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3519,14 +3525,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>15</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3535,14 +3541,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3552,11 +3558,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>15</v>
@@ -3575,7 +3581,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3585,51 +3591,84 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="76" ht="26.25" customHeight="1">
-      <c r="N76" s="13">
-        <v>3913.7950000000001</v>
-      </c>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>223</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>47</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>224</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" ht="26.25" customHeight="1">
+      <c r="N77" s="13">
+        <v>3988.7950000000001</v>
+      </c>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
         <v>225</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>226</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>227</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3983,10 +4022,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
